--- a/Income/HES_inc.xlsx
+++ b/Income/HES_inc.xlsx
@@ -2134,16 +2134,16 @@
         <v>-0.0951</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>-0.062</v>
+        <v>0.2649</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>0.2581</v>
+        <v>0.553</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>0.5289</v>
+        <v>0.7723</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>0.7639</v>
+        <v>1.0</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>1.0</v>
@@ -2261,16 +2261,16 @@
         <v>-0.5607</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>-0.5322</v>
+        <v>-0.5306</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>-0.4622</v>
+        <v>-0.461</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>-0.3164</v>
+        <v>-0.3157</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>0.0925</v>
+        <v>0.0923</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>0.1124</v>
@@ -2388,16 +2388,16 @@
         <v>-0.6709</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>-0.6264</v>
+        <v>-0.6245</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>-0.542</v>
+        <v>-0.5406</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>-0.3789</v>
+        <v>-0.3781</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>0.034</v>
+        <v>0.0339</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>0.0533</v>
@@ -2515,16 +2515,16 @@
         <v>-0.7281</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>-0.6812</v>
+        <v>-0.6792</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>-0.6102</v>
+        <v>-0.6086</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>-0.4549</v>
+        <v>-0.4539</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>-0.0634</v>
+        <v>-0.0633</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>-0.0317</v>
@@ -2642,16 +2642,16 @@
         <v>-0.0873</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>-0.3184</v>
+        <v>-0.3174</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>-0.2834</v>
+        <v>-0.2826</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>-0.175</v>
+        <v>-0.1746</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>-0.1793</v>
+        <v>-0.179</v>
       </c>
       <c r="H20" s="0" t="n">
         <v>-0.063</v>
@@ -4205,16 +4205,16 @@
         <v>0.3543</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>0.3556</v>
+        <v>0.3487</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>0.3686</v>
+        <v>0.3622</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>0.4049</v>
+        <v>0.3996</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>0.4235</v>
+        <v>0.4183</v>
       </c>
       <c r="H31" s="0" t="n">
         <v>0.4311</v>
@@ -4332,16 +4332,16 @@
         <v>0.3138</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>0.2398</v>
+        <v>0.2391</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>0.2757</v>
+        <v>0.275</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>0.2928</v>
+        <v>0.2921</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>0.2528</v>
+        <v>0.2522</v>
       </c>
       <c r="H32" s="0" t="n">
         <v>0.3445</v>
